--- a/Data Wrangling/DATA/column_reference.xlsx
+++ b/Data Wrangling/DATA/column_reference.xlsx
@@ -5046,7 +5046,7 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>unwanted</t>
         </is>
       </c>
     </row>
@@ -5073,7 +5073,7 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>unwanted</t>
         </is>
       </c>
     </row>
@@ -5100,7 +5100,7 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>unwanted</t>
         </is>
       </c>
     </row>
@@ -5127,7 +5127,7 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>unwanted</t>
         </is>
       </c>
     </row>
